--- a/enhanced_sample_jira_data.xlsx
+++ b/enhanced_sample_jira_data.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajit\Downloads\PM_Buddy_02MAY\resource_monitor_app\pm_02may_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF09FBB-C401-4DBD-B500-DD3745E113E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$51</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -871,8 +880,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,13 +944,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -979,7 +996,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1013,6 +1030,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1047,9 +1065,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1222,14 +1241,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1395,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1412,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="T3">
-        <v>5.11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1519,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1539,7 +1581,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1643,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1660,10 +1702,10 @@
         <v>23</v>
       </c>
       <c r="T7">
-        <v>8.949999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1767,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1787,7 +1829,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1891,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1908,10 +1950,10 @@
         <v>36</v>
       </c>
       <c r="T11">
-        <v>33.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>33.450000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1973,7 +2015,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2032,10 +2074,10 @@
         <v>6</v>
       </c>
       <c r="T13">
-        <v>4.81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2097,7 +2139,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2201,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2221,7 +2263,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2283,7 +2325,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2387,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2407,7 +2449,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2469,7 +2511,7 @@
         <v>20.36</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2531,7 +2573,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2593,7 +2635,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2652,10 +2694,10 @@
         <v>38</v>
       </c>
       <c r="T23">
-        <v>34.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2717,7 +2759,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2779,7 +2821,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2841,7 +2883,7 @@
         <v>23.78</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2900,10 +2942,10 @@
         <v>21</v>
       </c>
       <c r="T27">
-        <v>9.550000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2965,7 +3007,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -3027,7 +3069,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -3089,7 +3131,7 @@
         <v>12.03</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -3151,7 +3193,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3213,7 +3255,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3275,7 +3317,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3337,7 +3379,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3399,7 +3441,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3461,7 +3503,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3523,7 +3565,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3585,7 +3627,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3647,7 +3689,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3709,7 +3751,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3771,7 +3813,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3833,7 +3875,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3892,10 +3934,10 @@
         <v>37</v>
       </c>
       <c r="T43">
-        <v>32.09</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3957,7 +3999,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -4019,7 +4061,7 @@
         <v>20.68</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -4081,7 +4123,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -4143,7 +4185,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -4205,7 +4247,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -4267,7 +4309,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -4329,7 +4371,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -4392,6 +4434,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>